--- a/medicine/Enfance/George_Fronval/George_Fronval.xlsx
+++ b/medicine/Enfance/George_Fronval/George_Fronval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George (parfois Georges) Fronval, de son vrai nom Jacques Garnier, né le 16 janvier 1904 dans le 12e arrondissement de Paris[1], mort le 23 février 1975 à Fussey dans la Côte-d'Or, est un journaliste, dessinateur humoristique et romancier français.
-Il a utilisé de nombreux pseudonymes dont Gilbert de Fontanges, Germain Fontenelle, Gabriel Fersen, Gilbert Flamand, Gerald Faraway, Marc Izarra, Paul Lemaire, Bernard Leroy, Franck Murray, Henri de Trémières[2], Paul Sterling, Robert Boussar.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George (parfois Georges) Fronval, de son vrai nom Jacques Garnier, né le 16 janvier 1904 dans le 12e arrondissement de Paris, mort le 23 février 1975 à Fussey dans la Côte-d'Or, est un journaliste, dessinateur humoristique et romancier français.
+Il a utilisé de nombreux pseudonymes dont Gilbert de Fontanges, Germain Fontenelle, Gabriel Fersen, Gilbert Flamand, Gerald Faraway, Marc Izarra, Paul Lemaire, Bernard Leroy, Franck Murray, Henri de Trémières, Paul Sterling, Robert Boussar.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Journaliste dès l'âge de 18 ans, notamment à L'Intransigeant, cofondateur de Cinémonde, collaborateur de La Vie du Rail depuis sa création, conseiller technique d'un grand nombre de films, il fut aussi acteur à l'occasion (on le vit aux côtés de Fresnay dans La Grande Illusion), illustrateur, auteur de bandes dessinées et de près de 800 romans dits « populaires ». Ami de Jean Renoir et d'Erich von Stroheim, c'est lui qui organisa la rencontre qui permit à ce dernier, revenu ruiné d'Hollywood, d'obtenir le rôle de l'officier allemand qui le rendit célèbre dans La Grande Illusion. On peut apercevoir Fronval à la fin du film, interprétant le soldat allemand qui vise le capitaine de Boëldieu (Pierre Fresnay).
 Il était aussi connu comme collectionneur acharné de fascicules et de romans populaires, ainsi que de documents sur le cinéma. Il était réputé pour ses recherches et sa grande érudition sur la S.P.E. (Société parisienne d'édition, créée par les frères Offenstadt). Il a notamment publié dans Le Chasseur d'Illustré de nombreux articles sur Jean de La Hire ou José Moselli (numéro spécial de 1970). Passionné par l'histoire de l'Ouest et par celle de la piraterie, il devint l'un de leurs spécialistes en France.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-L'Épave vivante, Tallandier, coll. Cinéma-Bibliothèque no 323, 1930
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Épave vivante, Tallandier, coll. Cinéma-Bibliothèque no 323, 1930
 Danseuses pour Buenos-Aires, Tallandier, coll. Cinéma-Bibliothèque no 554, 1932
 Michèle l'aventureuse, Tallandier, coll. Les Beaux Romans dramatiques no 31, 1932
 Ombres des bas-fonds, Tallandier, coll. Cinéma-Bibliothèque no 583, 1933
@@ -581,25 +600,215 @@
 Les Évadés de Sakhaline, coll. Sous le signe de l'aventure no 10, 1948
 Le Shérif de Clifton-City, Édition Selpa, coll. Coq hardi no 30, 1949
 L'Affaire Zabello, Éditions de la Seine, coll. Service secret no 19, 1955
-L'Affaire du 2 X 758, Éditions de la Seine, 1956
-Romans signés Gabriel Fersen
-Trois du cinque, S.A.E.T.L., 1946
+L'Affaire du 2 X 758, Éditions de la Seine, 1956</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans signés Gabriel Fersen</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trois du cinque, S.A.E.T.L., 1946
 Alerte à Panama, coll. Sous le signe de l'aventure, 1948
 Le Destin d'une femme, Nord Édition, coll. Atalante, 1948
-Alerte à la raffinerie, S.A.E.T.L., 1949
-Romans signés Gilbert Flamand
-L'Amour qui renaît, Hebdo-roman no 29, série bleue, 1931
+Alerte à la raffinerie, S.A.E.T.L., 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans signés Gilbert Flamand</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Amour qui renaît, Hebdo-roman no 29, série bleue, 1931
 L'Éveil du cœur, Hebdo-roman no 60, série bleue, 1932
 La Caravane perdue, Éditions des Élégances, coll. Les Films pour la jeunesse, 1946
 La Cavalier Cyclone, Éditions des Élégances, coll. Les Films pour la jeunesse, 1946
 Prisonniers des pirates chinois, S.A.E.T.L., coll. Haute-police1946
-Les Mutins de l'"Orénoque", coll. Sous le signe de l'aventure, 1948
-Roman signé Paul Sterling
-Zorro, Éditions des Élégances, 1949
-Roman signé Franck Murray
-Le Secret de Monte-Carlo, Éditions mondiales, coll. Les Grandes Aventures no 5, 1952
-Récits de littérature d'enfance et de jeunesse
-K. S. Munitionen 28, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 1, 1945
+Les Mutins de l'"Orénoque", coll. Sous le signe de l'aventure, 1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Roman signé Paul Sterling</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Zorro, Éditions des Élégances, 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman signé Franck Murray</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Secret de Monte-Carlo, Éditions mondiales, coll. Les Grandes Aventures no 5, 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Récits de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>K. S. Munitionen 28, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 1, 1945
 La Fuite en mer, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 2, 1945
 Vainqueurs quand même, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 3, 1945
 Chargés de mission, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 4, 1945
@@ -612,9 +821,43 @@
 Sabotage sur la voie ferrée, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 11, 1946
 Imprimerie clandestine, Éditions T.O., coll. Jean-Paul et France le Lorrain, jeunes héros de la Résistance no 12, 1946
 Le sheriff de Clifton-City, éditions S.E.L.P.A. Paris,collection COQ-HARDI n° 30,1949
-Le Trésor de Pancho Villa, Éditions des Remparts, coll. Junior no 103, 1952
-Nouvelles
-Les Gangsters du Colorado, Laclau, 1945
+Le Trésor de Pancho Villa, Éditions des Remparts, coll. Junior no 103, 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les Gangsters du Colorado, Laclau, 1945
 Combat au bord de l'abîme, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 2, 1946
 Alerte à Fort-Wrigley, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 2, 1946
 Le Totem de la mort, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 3, 1946
@@ -646,9 +889,43 @@
 Le Courrier de San Cristobal, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 37, 1947
 10.000 dollars mort ou vif, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 38, 1947
 Les Voleurs de chevaux du Texas, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 39, 1947
-La Ville aux fantômes, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 40, 1947
-Autres publications
-Pierre Fresnay, sa vie, ses films, 1939
+La Ville aux fantômes, Duclos, coll. Les Merveilleux Exploits de Buffalo Bill no 40, 1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pierre Fresnay, sa vie, ses films, 1939
 Charlie Chaplin, 1944
 Charles Boyer, 1944
 Paris brise ses chaînes, épopée des 20 arrondissements et de la banlieue dans les journées du 19 au 25 août 1944, Éditions et revues françaises, 1944
@@ -666,9 +943,43 @@
 La véritable histoire des Indiens Peaux-Rouges, Nathan, 1977
 Sitting Bull, le grand chef sioux, Nathan, 1984
 Cochise, l'Apache au cœur fidèle, Nathan, 1984
-Wild Bill Hickok, le shérif de l'Ouest, Nathan, 1984
-Ouvrages signés du pseudonyme Germain Fontenelle
-L'Impossible Amour, Hebdo-roman no 21, série bleue, 1931 ; réédition, Nord Édition, 1948
+Wild Bill Hickok, le shérif de l'Ouest, Nathan, 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>George_Fronval</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Fronval</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages signés du pseudonyme Germain Fontenelle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'Impossible Amour, Hebdo-roman no 21, série bleue, 1931 ; réédition, Nord Édition, 1948
 Demi-vierge d'Amérique, le Livre passionnant illustré no 14, 1932
 Reine de beauté, Hebdo-roman no 40, 1932
 Marlène Diétrich, 1944
